--- a/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.94946809708861</v>
+        <v>8.949468097088609</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.710703510945983</v>
+        <v>8.710703510945985</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.838028640934636</v>
+        <v>8.838028640934638</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.647347059280115</v>
+        <v>8.661011763657584</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.303310294107545</v>
+        <v>8.300382726188396</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.60327362926515</v>
+        <v>8.604648605330553</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.214850560844848</v>
+        <v>9.23298042491516</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.075726852650856</v>
+        <v>9.082111439246116</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.061348569146343</v>
+        <v>9.084154409885821</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>8.855771398440496</v>
+        <v>8.855771398440497</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>8.796580076485998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8.829302370595535</v>
+        <v>8.829302370595533</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.6828409801382</v>
+        <v>8.6836013354368</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.667205183361329</v>
+        <v>8.654569918432832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.717597686069887</v>
+        <v>8.713796962351346</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.998052575899194</v>
+        <v>8.999638872871095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.928007530461592</v>
+        <v>8.92859825425146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.932720543473293</v>
+        <v>8.933005730203506</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8.909466469657412</v>
+        <v>8.909466469657415</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.699574754758169</v>
+        <v>8.699574754758167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.820409121860358</v>
+        <v>8.82040912186036</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.799895096919816</v>
+        <v>8.793494669082392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.588137415244825</v>
+        <v>8.580196926510091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.732998244096114</v>
+        <v>8.739870473965942</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.012320569916881</v>
+        <v>9.00938715495553</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.80999927332566</v>
+        <v>8.802885641940943</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.886475728655071</v>
+        <v>8.896268751771695</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>8.775671799051469</v>
+        <v>8.775671799051468</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>8.58928331954171</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.64876045708368</v>
+        <v>8.633216697544523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.484078415744476</v>
+        <v>8.485572610675156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.608741439247801</v>
+        <v>8.609718071183799</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.884724862906875</v>
+        <v>8.885571927744769</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.686753390398422</v>
+        <v>8.690453156177774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.764872585893782</v>
+        <v>8.765431270084868</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>8.379273586572715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.459929005702257</v>
+        <v>8.459929005702259</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.36969806007486</v>
+        <v>8.350779077331127</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.197981774771664</v>
+        <v>8.197849853158463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.342066186657597</v>
+        <v>8.335318968605787</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.66494173327926</v>
+        <v>8.657543923100976</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.53486916711384</v>
+        <v>8.525696296361215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.567373349157851</v>
+        <v>8.562730220834561</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.726226639381069</v>
+        <v>8.735413822451324</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.568784902495953</v>
+        <v>8.571813624679939</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.679584446249322</v>
+        <v>8.675076416113621</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.854442119206722</v>
+        <v>8.856949262033721</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.700517081932713</v>
+        <v>8.696999056000921</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.773907301569235</v>
+        <v>8.769562548643771</v>
       </c>
     </row>
     <row r="22">
